--- a/Unique Individuals/Histograms.xlsx
+++ b/Unique Individuals/Histograms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Informatica &amp; Economie\Bachelorproject\RecordLinkage\Unique Individuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC6A82-FE71-43EE-8FA8-82BB6D9CF9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1478B77-DF7E-46AA-9365-6A6F365DB018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Max Lev" sheetId="7" r:id="rId1"/>
@@ -9186,7 +9186,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Complete!$H$5</c15:sqref>
@@ -9213,7 +9213,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Complete!$C$6:$C$13</c15:sqref>
@@ -9248,7 +9248,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Complete!$H$6:$H$13</c15:sqref>
@@ -9282,7 +9282,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8B4B-4546-8F5F-4CCDD3A169F2}"/>
                   </c:ext>
@@ -57928,8 +57928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6FD160-324C-4A66-B90D-BC14A74954C6}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57942,7 +57942,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>95938</v>
+        <v>95939</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -57982,7 +57982,7 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>352296</v>
+        <v>352297</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -58018,8 +58018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EF86D6-A2BC-488F-ABAC-5BBE62ABBAF8}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58153,14 +58153,14 @@
         <v>213854</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/D6*100</f>
+        <f t="shared" ref="F6:F12" si="0">E6/D6*100</f>
         <v>72.012230232785228</v>
       </c>
       <c r="G6">
         <v>209439</v>
       </c>
       <c r="H6" s="1">
-        <f>G6/D6*100</f>
+        <f t="shared" ref="H6:H12" si="1">G6/D6*100</f>
         <v>70.525543070152111</v>
       </c>
     </row>
@@ -58175,14 +58175,14 @@
         <v>570334</v>
       </c>
       <c r="F7" s="1">
-        <f>E7/D7*100</f>
+        <f t="shared" si="0"/>
         <v>96.020351127662579</v>
       </c>
       <c r="G7">
         <v>401522</v>
       </c>
       <c r="H7" s="1">
-        <f>G7/D7*100</f>
+        <f t="shared" si="1"/>
         <v>67.599482803903214</v>
       </c>
     </row>
@@ -58197,14 +58197,14 @@
         <v>169868</v>
       </c>
       <c r="F8" s="1">
-        <f>E8/D8*100</f>
+        <f t="shared" si="0"/>
         <v>84.189762499504383</v>
       </c>
       <c r="G8">
         <v>141684</v>
       </c>
       <c r="H8" s="1">
-        <f>G8/D8*100</f>
+        <f t="shared" si="1"/>
         <v>70.221244201260859</v>
       </c>
     </row>
@@ -58219,14 +58219,14 @@
         <v>341622</v>
       </c>
       <c r="F9" s="1">
-        <f>E9/D9*100</f>
+        <f t="shared" si="0"/>
         <v>86.270796084729838</v>
       </c>
       <c r="G9">
         <v>195970</v>
       </c>
       <c r="H9" s="1">
-        <f>G9/D9*100</f>
+        <f t="shared" si="1"/>
         <v>49.488873400204049</v>
       </c>
     </row>
@@ -58241,14 +58241,14 @@
         <v>230872</v>
       </c>
       <c r="F10" s="1">
-        <f>E10/D10*100</f>
+        <f t="shared" si="0"/>
         <v>71.182312333700239</v>
       </c>
       <c r="G10">
         <v>153932</v>
       </c>
       <c r="H10" s="1">
-        <f>G10/D10*100</f>
+        <f t="shared" si="1"/>
         <v>47.460219091752762</v>
       </c>
     </row>
@@ -58263,14 +58263,14 @@
         <v>101328</v>
       </c>
       <c r="F11" s="1">
-        <f>E11/D11*100</f>
+        <f t="shared" si="0"/>
         <v>63.918852427992888</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>G11/D11*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -58285,14 +58285,14 @@
         <v>491558</v>
       </c>
       <c r="F12" s="1">
-        <f>E12/D12*100</f>
+        <f t="shared" si="0"/>
         <v>79.098050700454095</v>
       </c>
       <c r="G12">
         <v>280038</v>
       </c>
       <c r="H12" s="1">
-        <f>G12/D12*100</f>
+        <f t="shared" si="1"/>
         <v>45.061742301119637</v>
       </c>
     </row>
